--- a/PLScombined/PLScombined_predicted_factors_matrix_11.xlsx
+++ b/PLScombined/PLScombined_predicted_factors_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:AU12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-0.8609510498001326</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.8552386424770742</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.8608930609084111</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.8755862590288276</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.8976350924168891</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.9254600813978708</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.9578135985005592</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.9936771495227515</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.032204204890908</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.072685023089417</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1.114522794010929</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.157215994021505</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-1.200344087904442</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1.243556797484519</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-1.28656420922218</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1.32912831027258</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-1.371055797262469</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-1.412191824057744</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-1.452414539234246</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-1.491630304359195</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1.529769505471396</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-1.566782885111233</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-1.602638333539407</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-1.637318086487434</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-1.670816283655719</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-1.703136847700814</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-1.734291648015663</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-1.764298917393689</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-1.793181892982847</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1.819997647464354</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-1.84575330380836</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1.870481359215476</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-1.894217049500978</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1.916996541857283</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1.93987735270177</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1.961854492806687</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-1.982966068644748</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-2.00324659205421</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-2.022728524712331</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-2.041442883840968</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-2.059419469001506</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-2.076686930531597</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-2.093272764069426</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>-0.6447435527795251</v>
       </c>
+      <c r="F3" t="n">
+        <v>-0.7153600395317621</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.7573242279192652</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.7730386911569196</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.7704762759894035</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.7540399645834115</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.7273108181698208</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.6932218124865468</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.6541709938340083</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.6121055971485253</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.5685901599723027</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.5248215249366253</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.4818484422316012</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.4403644588198741</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.4009091273877493</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.3638616757424126</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.3294696058457615</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.297873334837576</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.2691273295584737</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.2432181364113351</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.2200796717866708</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.1996061045394112</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.1816626302549426</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.1660944074998475</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.1527338987970575</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.1414068336824716</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.1319369877920767</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.1241499504231811</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.1178760332680453</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.1125884131784778</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.1085663187977591</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.1056477207235898</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.1036827800178496</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.1025351461425256</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.1024358294236951</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.1028931785993132</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.1038106144174459</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.1051056745119928</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.1067067239035028</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.108551217679672</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1105846017920877</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.1127594942280111</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.1150349562905594</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.6173313932064327</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.470007370982924</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3494097140547849</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2476997882410245</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1646683131397905</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.09736293143091483</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.04335274450453088</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0005799758045254089</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.03272798387493504</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.05810650003615948</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.07688531152742552</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.09038407979135031</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.09923220751938831</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.1044689275678598</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.1068180979583099</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.1068949057299085</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.1052190128242031</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.1022265890881268</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.09828107972225197</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.09368280885607887</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.08867753049449348</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.08346402821566727</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.07820085459089442</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.0730122921695758</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.06799361002940843</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.0632156832502504</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.05872903697560578</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.05456737177005237</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.05075062258330738</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.04698201463344757</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.04362041510433462</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.04065938098008722</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.03807996193990454</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.03585740958457088</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.03415861404466584</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.03273827434846743</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.03156698754322235</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.03061949570686313</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.02987358527248597</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.02930856649983588</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.02890480351220935</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.028643671019731</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.02850759652387328</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.4073808423103441</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.3189226758385581</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2402959509273682</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1715144962914756</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1145572864663285</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.06800812017581559</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.03045972461850563</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0006092600984344563</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.02270839532400739</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.04051944096000381</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.05372071903212258</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.06309205406606874</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.069305777446296</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.07294758101276833</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.0745176274845326</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.07444313855432083</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.07308728154012109</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.07075695165883421</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.0677097374530371</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.06416016302636772</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.06028527781801248</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.05622965565795879</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.05210985756316205</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.04801840672058543</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.04402731914868675</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.0401912294732348</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.03655014803141246</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.03313188274539165</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.02995415689832109</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.02674235358443622</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.02386642535930807</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.02129801691044631</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.01901572260373793</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.01700002631464354</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.01541453849222934</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.01400749559311393</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.01277473134480179</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.01170697744542643</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.01079219815960888</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.01001741963439584</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.009369554425647492</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.008835800323172107</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.008403852252969548</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.1578696525371704</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.1217178934240061</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.09267449873979237</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.06977668529875677</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.05229300576192469</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.03894782261858758</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.02874475884440001</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.02091934385804486</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.01489052189179418</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.01021802280299462</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.006568681424934134</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.003690718087030094</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.001395331598281489</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0004617605771389663</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.001987691967415309</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.003262417775854392</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.004345412360676716</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.005280714891411712</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.006100776740711753</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.006829393940480984</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.007483937176217485</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.008077042415942244</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.008617887715479722</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.009113152893216788</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.009567736523149495</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.009985287655393275</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.01036859639490666</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.01071987741718569</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.01104097259452407</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.01127089556858838</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.01149066093665954</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.01169265166177771</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.01187471878896974</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.01203677657643386</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.01226784971265391</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.01246157629486215</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.01262474785876197</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.01276202590201734</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.01287687723957813</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.01297216162284308</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.01305033344575943</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.01311352408421855</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.01316359392964838</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>-0.3597556041430935</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.3022363944278241</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.252409893822269</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.2066995441591067</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.1674318619067273</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.1338811967688005</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.1054074815716066</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.08142266086734702</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.06138375467830453</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.04479190025460764</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.03119219024377984</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.02017300780963355</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.01136520293213923</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.004438542370178742</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0008992535805785321</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.004905508888867196</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.007805431417302754</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.009794955083901075</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.01104353130382886</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.01169681771174302</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.01187922780783163</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.01169631850584158</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.0112370029510009</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.0105755836386586</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.00977360643161572</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.008881540104338059</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.007940288617575779</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.006982545251790794</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.006033998650291398</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.005033972932017946</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.004089512539865654</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.003212085989232014</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.002407728411264624</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.001679215743780812</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.001065508792902246</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.0005254372536457873</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5.420902949179659e-05</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.0003519459988183943</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.0006969354688293478</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.0009849299483455076</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.001220285321273276</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.001407437771762864</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.001550839365181805</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>-0.0007542561705706297</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.01287032087670907</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02065632019915247</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02442720772427818</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.02616182756173294</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.02663432936242865</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.02628502182853345</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.02538653997074633</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.02412021252135875</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.02261347434575771</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0209593010034579</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.01922701247745632</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.01746855818419766</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.01572338898767121</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.01402053247586481</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.01238103763974259</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.01081962693297206</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.009345983235636835</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.007965787059102015</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.006681564563624843</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.005493385865462972</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.004399441480948164</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.003396517740436179</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.002480387412801896</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.00164612874460883</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.0008883838936463336</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.000201566031093693</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.000419976903164746</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.0009818349086738601</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.001477018064792383</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.001918052740073423</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.002310523662374235</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.002661069091510329</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.0029756848341321</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.003314631504171668</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.00360879824904326</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.003871155318995709</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.004108741663621123</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.004326002152954255</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.004526102027127119</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.004711495059190597</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.004884182693573252</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.005045870377154348</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1593,132 @@
       <c r="E9" t="n">
         <v>0.11227806360753</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.06646774382676032</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.04139240490985234</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.02557240605559662</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01646451732151814</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.01080200027302927</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.00709761837049792</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.004627605446694176</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.003003715505671032</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.001991897064282542</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.001434660854422089</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.001216981950554152</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.00125090332837822</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.001466344203222095</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.001807964189654348</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.002231742284215965</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.002702845222686663</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.003193998285564326</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.00368416552252643</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.004157454961528636</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.004602200381631304</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.005010187537839892</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.005376001144846458</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.005696474166568651</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.00597022426229592</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.006197264856753757</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.006378680136884642</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.006516354867076491</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.006612751200371799</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.006470676983324276</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.006430271872434746</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.006408652355518939</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.006376442378316165</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.006324823607249719</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.006445613756149506</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.00641902922832635</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.006323469800227952</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.006193012487971414</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.006043062047429501</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.005881093769433732</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.005711177878061833</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.005535875205002412</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.005357020802381797</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1736,132 @@
       <c r="E10" t="n">
         <v>0.1030262828418555</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.08989610294465432</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.07310069635664365</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.05433293400879278</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0377348579830133</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.02367081100856918</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.01211764210582694</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.002874009841213317</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.004331770742599813</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.009787025499881013</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.01376772798988244</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0.01652610792676118</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.0182856115330496</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.01924136849251905</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-0.01956056405774401</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.01938503099709262</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-0.01883396298505258</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.01800663375458569</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-0.0169849784737477</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.01583596497656442</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-0.01461372853974742</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.01336146914340728</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.01211312285709872</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.01089482489482328</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-0.009726183865890246</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-0.008621386814646132</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0.007590153619199375</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-0.006638557982991859</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.005769730608312993</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-0.004843484774379597</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-0.004059423246857971</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-0.003390698541786232</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-0.002819901579793988</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.002334502233827583</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-0.001988656965673006</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-0.00168884483699994</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0.001436437544134264</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>-0.001229519816526696</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-0.001064747171729108</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>-0.0009382480485255641</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>-0.0008460360713113006</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>-0.0007842050713122188</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>-0.0007490330897916625</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1879,132 @@
       <c r="E11" t="n">
         <v>0.01296928823240504</v>
       </c>
+      <c r="F11" t="n">
+        <v>0.007803642980952643</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.005923605914032236</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.005034056409400079</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.004669221684758154</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.004520741961191207</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.004460885065143934</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.004428385035083947</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.00438917862313612</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.004323522702269631</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.004221076001642707</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.004078237185610417</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.003895749557131566</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.003678700866485677</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.003433294993633062</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.003166670434333492</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.002886204171293357</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.002598991547613524</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.002311510526734641</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.002029428946212967</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.001757516591289907</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.001499630993065467</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.001258752846834253</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.00103705272822978</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.0008359756561939492</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.0006563338061550538</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.0004984006517007896</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.0003620019702149436</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.0002466009005238524</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.0001638547354709667</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.0001023778246763371</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>5.4760282320035e-05</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1.95387144743213e-05</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-3.586355730113229e-06</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-2.781026317252272e-05</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-4.285815600414789e-05</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-4.41022682400715e-05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-3.188352050419581e-05</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-8.003368717172921e-06</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>2.557438037257821e-05</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>6.708156717133535e-05</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.0001150026338268931</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.0001680125598707437</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -635,6 +2021,132 @@
       </c>
       <c r="E12" t="n">
         <v>0.01017377922567226</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.01075890500141916</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.006357417142210746</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.001378343498008159</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.002469819797666614</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.005224062278271085</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.007101414253252177</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.008309289459891489</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.009011700175475479</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.009333565267089469</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.009370468417019934</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.00919660637162165</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.008870183462002003</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.008437521701127854</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.007935214016669996</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.007392172554275471</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.006831066607182367</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.006269450846580486</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.005720680093539827</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.005194663848181644</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.004698495092283456</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.004236977355320702</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.003813067697920763</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.003428249134932728</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.003082843303069138</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.002776272215591756</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.00250727645435112</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.002274096114240172</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.002074619788960567</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.001848114279510492</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.00169220824442977</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.001573557283556605</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.001481336997110858</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.001410981964387596</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.001398581483831969</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.001378719711631111</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.001367362037970899</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.001367230126324453</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.001377483914240174</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.00139657116739984</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.001422967819906214</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.00145532396926518</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.001494911878350865</v>
       </c>
     </row>
   </sheetData>
